--- a/examples/USA OGD/traffic_violations/counters_summary.xlsx
+++ b/examples/USA OGD/traffic_violations/counters_summary.xlsx
@@ -360,77 +360,102 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>COMPLETENESSMANDATORY</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>COMPLETENESSMANDATORY SCORE</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>COMPLETENESSOPTIONAL</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>COMPLETENESSOPTIONAL SCORE</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>PRECISION</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>PRECISION SCORE</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>BUSINESSRULECOMPLIANCE</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>BUSINESSRULECOMPLIANCE SCORE</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>METADATACOMPLIANCE</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>METADATACOMPLIANCE SCORE</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
           <t>UNIQUENESS</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>UNIQUENESSCOMPOSITE</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>UNIQUENESS SCORE</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>NONREDUNDANCY</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>NONREDUNDANCY SCORE</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>SEMANTICCONSISTENCY</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>SEMANTICCONSISTENCY SCORE</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>VALUECONSISTENCY</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>VALUECONSISTENCY SCORE</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
         <is>
           <t>FORMATCONSISTENCY</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>FORMATCONSISTENCYPREFIX</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>VALUECONSISTENCY</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCESIZE</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCETYPE</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCERANGEMIN</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCERANGEMAX</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCEENUM</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>RULECOMPLIANCE</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>MANDATORYCOMPLETENESS</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>OPTIONALCOMPLETENESS</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>AVAILABILITY</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>CONFORMANCE</t>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>FORMATCONSISTENCY SCORE</t>
         </is>
       </c>
     </row>
@@ -485,6 +510,21 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -537,6 +577,21 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -589,6 +644,21 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -641,6 +711,21 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -649,7 +734,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -682,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -691,6 +776,21 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -701,7 +801,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -734,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -743,6 +843,21 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -753,10 +868,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>73031</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -786,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>73031</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -795,6 +910,21 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -805,10 +935,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>73031</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -838,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>73031</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -847,6 +977,21 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -901,6 +1046,21 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -953,6 +1113,21 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1005,6 +1180,21 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1057,6 +1247,21 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1109,6 +1314,21 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1161,6 +1381,21 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1213,6 +1448,21 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1265,6 +1515,21 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1317,6 +1582,21 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1369,6 +1649,21 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1377,7 +1672,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1410,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1419,6 +1714,21 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1473,6 +1783,21 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1481,10 +1806,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>5201</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1514,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>5201</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -1523,6 +1848,21 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1533,7 +1873,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1566,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -1575,6 +1915,21 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1585,7 +1940,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1618,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -1627,6 +1982,21 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1637,10 +2007,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1746</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1670,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1746</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1679,6 +2049,21 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1733,6 +2118,21 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1785,6 +2185,21 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1793,10 +2208,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>42633</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>0.026</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1826,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>42633</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -1835,6 +2250,21 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1889,6 +2319,21 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1941,6 +2386,21 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1993,6 +2453,21 @@
       <c r="P31" t="n">
         <v>0</v>
       </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2001,7 +2476,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -2034,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2043,6 +2518,21 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2053,7 +2543,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -2086,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2095,6 +2585,21 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2105,10 +2610,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>929</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -2138,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>929</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2147,6 +2652,21 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2201,6 +2721,21 @@
       <c r="P35" t="n">
         <v>0</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2209,10 +2744,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>73031</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -2242,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>73031</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -2251,6 +2786,21 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
         <v>0</v>
       </c>
     </row>

--- a/examples/USA OGD/traffic_violations/counters_summary.xlsx
+++ b/examples/USA OGD/traffic_violations/counters_summary.xlsx
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>73031</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>73031</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1806,10 +1806,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5201</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1873,7 +1873,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2007,10 +2007,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1746</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2208,10 +2208,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>42633</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.026</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -2543,7 +2543,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -2610,10 +2610,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>929</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -2744,10 +2744,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>73031</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
